--- a/test4f.xlsx
+++ b/test4f.xlsx
@@ -775,18 +775,10 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -795,76 +787,30 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>5.5855</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2642.351831243734</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2642.351831243734</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>251.0382844649897</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>427.7647571570712</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1496.478658960339</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>467.0701306613342</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>744.3421203801555</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>-744.3421203801555</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.2816968246162079</v>
-      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
+      <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -926,18 +872,10 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
@@ -946,76 +884,30 @@
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>5.419445578231293</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2642.351831243734</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2642.351831243734</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>282.7269166448182</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>720.3656273360125</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1242.641991554246</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>396.6172957086573</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>-11.20821199335543</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>-40.61838309262616</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>20.42717605966337</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>17.76342981381965</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>370.5343859435081</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>726.5599489523678</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>-726.5599489523678</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.2749671487200863</v>
-      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="n">
-        <v>221.605160680195</v>
-      </c>
+      <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1077,18 +969,10 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -1097,81 +981,31 @@
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>4.282155723158829</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2641.556229069821</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2641.556229069821</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>602.2438382656406</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>426.2254150763259</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1216.469680019197</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>396.6172957086573</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>-58.31617220228652</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.3611568025500445</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>23.01816342325304</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>17.76342981381965</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>392.7314374445434</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>711.947955512167</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>-711.947955512167</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.2695183799902983</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>1.651695358551251</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>353.7028964557913</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>7.074057929115826</v>
-      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1232,18 +1066,10 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>2.781422980256562</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4172.134470384844</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -1252,79 +1078,31 @@
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="n">
-        <v>5.5855</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2642.351831243734</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2936.882074368188</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>724.5893142699458</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2212.292760098242</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1917.762516973788</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>230.6518422299013</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>251.3349307704997</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>971.488323969593</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>464.2874200037941</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0.2742213605706275</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0.2467206022992349</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>88.49171040392939</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>543.8771225644683</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>-455.3854121605389</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.3227239776113022</v>
-      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="n">
-        <v>-1351.005452873493</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>-0.323816373240931</v>
-      </c>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1385,18 +1163,10 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>2.781422980256562</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4172.134470384844</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -1405,79 +1175,31 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="n">
-        <v>5.419445578231293</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>2594.756362588011</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>2936.882074368188</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>726.8898605728967</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2209.992213795291</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1867.866502015114</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>248.3636345102917</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>414.8676192416012</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>810.6927849512342</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>393.9424633119868</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.076908847775444</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>3.108735730941519</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>84.59257153131773</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>18.56303246279729</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0.2801380010290818</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.2475039317774694</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>296.6605535344574</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>88.39968855181154</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>518.2273129619249</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>-429.8276244101133</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0.3187939019646526</v>
-      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="n">
-        <v>-1032.498926037698</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>-0.2474749875313724</v>
-      </c>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1538,18 +1260,10 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>2.781422980256562</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4172.134470384844</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1558,79 +1272,31 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="n">
-        <v>4.282155723158829</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>2596.816115945006</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>2936.882074368188</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>707.5642092174919</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2229.317865150696</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1889.251906727514</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>450.8646750776223</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>247.3236832427872</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>797.1210850951176</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>393.9424633119868</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>-44.32070234338715</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>72.95745864222498</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>87.73542526249565</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>18.56303246279729</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0.2724737438561385</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0.2409236024125042</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>310.4949866163859</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>89.17271460602774</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>514.5056902716434</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>-425.3329756656157</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0.316810209117617</v>
-      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="n">
-        <v>-1026.485667967935</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>-0.2431200794688029</v>
-      </c>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1691,18 +1357,10 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>2.781422980256562</v>
-      </c>
-      <c r="V8" t="n">
-        <v>10</v>
-      </c>
-      <c r="W8" t="n">
-        <v>4172.134470384844</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6000</v>
-      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1711,79 +1369,31 @@
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
-        <v>5.5855</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>2642.351831243734</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>2936.882074368188</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1834.278451327121</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1102.603623041067</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>808.0733799166129</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>100.389837666797</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>116.7326590803254</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>390.1776755129782</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>200.7732076565123</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0.6941840331927868</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0.6245665998427022</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>44.10414492164263</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>228.6651852101087</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>-184.5610402884661</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0.5692677054511801</v>
-      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="n">
-        <v>-9654.879927066808</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>-0.9046812475853901</v>
-      </c>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1844,18 +1454,10 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>2.781422980256562</v>
-      </c>
-      <c r="V9" t="n">
-        <v>10</v>
-      </c>
-      <c r="W9" t="n">
-        <v>4172.134470384844</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6000</v>
-      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1864,79 +1466,31 @@
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="n">
-        <v>4.282155723158829</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>2596.816115945006</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2936.882074368188</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1794.834438940779</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1142.047635427409</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>801.9816770042271</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>231.2883632302286</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>116.8935094050538</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>294.3728000257267</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>159.427004343218</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>8.539089887156033</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>265.9439769874658</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>408.3617300340093</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>192.9680154158924</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0.6911673213671587</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0.6111360257210537</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>310.4949866163859</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>45.68190541709626</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>214.2569018997349</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>-168.5749964826387</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.5730939172099953</v>
-      </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="n">
-        <v>-9505.658486613524</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>-0.8865453527810813</v>
-      </c>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1999,18 +1553,10 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -2019,76 +1565,30 @@
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="n">
-        <v>6.302752602948715</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>5173.817032349292</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>5173.817032349292</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>322.5475176672682</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>878.7262425183812</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>3078.135721406071</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>894.4075507575718</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>1468.98656992912</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>-1468.98656992912</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0.2839270427895308</v>
-      </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
+      <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -2251,18 +1751,10 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="n">
-        <v>5.446123191946623</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8169.184787919935</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -2271,79 +1763,31 @@
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="n">
-        <v>6.302752602948715</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>5173.817032349292</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>5750.517519544449</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1579.472407371739</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>4171.04511217271</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>3594.344624977554</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>295.5471181216092</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>503.6547210262252</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1905.889024205787</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>889.2537616239323</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0.3052818446218889</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0.2746661325704235</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>166.8418044869087</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>1030.196446960058</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>-863.3546424731491</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0.3172529926455622</v>
-      </c>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="n">
-        <v>-2148.763805117755</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>-0.2630328314148566</v>
-      </c>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2407,13 +1851,13 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>9.232996483297564</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>13849.49472494635</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2427,76 +1871,78 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>5.129028892981156</v>
+        <v>8.159029476741042</v>
       </c>
       <c r="AH13" t="n">
-        <v>3220.818221051894</v>
+        <v>13554.68766721154</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>9755.919730798634</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>2973.569625384749</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>6782.350105413922</v>
       </c>
       <c r="AL13" t="n">
-        <v>3220.818221051894</v>
+        <v>10581.11804182718</v>
       </c>
       <c r="AM13" t="n">
-        <v>423.1734400417973</v>
+        <v>2650.390947447119</v>
       </c>
       <c r="AN13" t="n">
-        <v>583.8595006339543</v>
+        <v>2028.134578222797</v>
       </c>
       <c r="AO13" t="n">
-        <v>1800.483694228781</v>
+        <v>4053.348816503142</v>
       </c>
       <c r="AP13" t="n">
-        <v>413.3015861473611</v>
+        <v>1849.243699653907</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>14.92666685128674</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>3.0734468400506</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-6.589719684481667</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1.941233320360956</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.2193757391088945</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.3047964423074777</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>271.2940042165569</v>
       </c>
       <c r="AY13" t="n">
-        <v>888.4115359504048</v>
+        <v>2829.440759434487</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-888.4115359504048</v>
+        <v>-2558.14675521793</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.2758341126312296</v>
+        <v>0.2860418889241081</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="inlineStr"/>
+        <v>-17392.90727233772</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>-1.25585139514215</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2559,18 +2005,10 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>5.446123191946623</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8169.184787919935</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6000</v>
-      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
@@ -2579,79 +2017,31 @@
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>6.302752602948715</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>5173.817032349292</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>5750.517519544449</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>3462.39523962697</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>2288.122279917479</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1711.421792722323</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>159.0239702163923</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>272.2720287938715</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>859.5187567104861</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>420.6070370015723</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0.6692148597405635</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0.6021015026663649</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>91.52489119669934</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>487.5238688229526</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>-395.9989776262532</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0.4051811074049508</v>
-      </c>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="n">
-        <v>-7629.557657091273</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>-0.5201078156281874</v>
-      </c>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2813,18 +2203,10 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -2833,76 +2215,30 @@
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>7.365401126137415</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8771.346659132685</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>8771.346659132685</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>627.1278766300012</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1611.538458436155</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>4946.564737879391</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1586.115586187138</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>2481.556585805483</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>-2481.556585805483</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0.2829162592977019</v>
-      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
       <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
+      <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3065,18 +2401,10 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>9.232996483297564</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>13849.49472494635</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
@@ -3085,79 +2413,31 @@
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>7.365401126137415</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8771.346659132685</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9749.046461822174</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>2412.526372380546</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>7336.52008944163</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>6358.82028675214</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>564.0187659935244</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>986.1005551684455</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>3231.247320263254</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1577.453645326915</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0.2750462917650889</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0.2474628038576017</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>293.4608035776653</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1815.319321647084</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>-1521.858518069419</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0.3238864381216627</v>
-      </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="n">
-        <v>-4478.465285493016</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>-0.3233666913079651</v>
-      </c>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3319,18 +2599,10 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>9.232996483297564</v>
-      </c>
-      <c r="V20" t="n">
-        <v>10</v>
-      </c>
-      <c r="W20" t="n">
-        <v>13849.49472494635</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6000</v>
-      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -3339,79 +2611,31 @@
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>7.365401126137415</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8771.346659132685</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>9749.046461822174</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>4559.198978222666</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>5189.847483599511</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>4212.14768091002</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>438.6608279071136</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>818.709085950914</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>2030.543599736315</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>924.2341673156765</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0.5197832391535511</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0.46765588779136</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>207.5938993439809</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1185.12676262842</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>-977.5328632844387</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0.3669760573687669</v>
-      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
       <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="n">
-        <v>-9373.909243071141</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>-0.4606457983244032</v>
-      </c>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3573,18 +2797,10 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
@@ -3593,76 +2809,30 @@
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="n">
-        <v>9.367380194210211</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>9987.31994085507</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>9987.31994085507</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>764.0331223595443</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1982.524026979474</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>5457.344426242961</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>1783.418365273092</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>2814.312394409014</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>-2814.312394409014</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0.281788548987628</v>
-      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
+      <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3825,18 +2995,10 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="n">
-        <v>10</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>15000</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
@@ -3845,79 +3007,31 @@
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>9.367380194210211</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>9987.31994085507</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>10558.91928417621</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>2725.429235928331</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>7833.490048247877</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>7261.890704926741</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>696.4661771552794</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1213.481472826624</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>3577.848617737449</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>1774.094437207388</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0.2728889483933957</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0.2581163055212203</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>313.3396019299146</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>2063.978695163668</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>-1750.639093233754</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0.3183314362533211</v>
-      </c>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="n">
-        <v>-4548.276912081525</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>-0.303218460805435</v>
-      </c>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4079,18 +3193,10 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="n">
-        <v>10</v>
-      </c>
-      <c r="V26" t="n">
-        <v>10</v>
-      </c>
-      <c r="W26" t="n">
-        <v>15000</v>
-      </c>
-      <c r="X26" t="n">
-        <v>6000</v>
-      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -4099,79 +3205,31 @@
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="n">
-        <v>9.367380194210211</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9987.31994085507</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>10558.91928417621</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>5010.172705594908</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>5548.746578581301</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>4977.147235260164</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>579.7967229816602</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1036.967410920485</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>2296.201010379628</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>1064.182090978391</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0.5016533699996757</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0.4744967331176823</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>221.9498631432512</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1391.175356451981</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>-1169.22549330873</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0.352461317413128</v>
-      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="n">
-        <v>-8981.523096151846</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>-0.4177452602861324</v>
-      </c>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -4333,18 +3391,10 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
@@ -4353,76 +3403,30 @@
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="n">
-        <v>7.512500962911661</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>3858.325112966121</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>3858.325112966121</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>387.9435301945329</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>798.7503257003895</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>2007.258347323911</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>664.3729097472873</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>1077.097928983682</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>-1077.097928983682</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0.2791620450449337</v>
-      </c>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="n">
-        <v>0</v>
-      </c>
+      <c r="BD28" t="inlineStr"/>
       <c r="BE28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -4585,18 +3589,10 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="n">
-        <v>4.061394855753811</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>6092.092283630716</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -4605,79 +3601,31 @@
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="n">
-        <v>7.512500962911661</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>3858.325112966121</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>4288.394046307297</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>965.0546484666472</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>3323.33939784065</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>2893.270464499474</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>364.4286713616403</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>527.8704423019683</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1340.478424825784</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>660.4929260100811</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>0.2501226880087233</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>0.2250387063422142</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>132.9335759136271</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>811.2921706194629</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>-678.3585947058358</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>0.3261998894219456</v>
-      </c>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="n">
-        <v>-2261.73285998739</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>-0.3712571567677338</v>
-      </c>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4839,18 +3787,10 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="n">
-        <v>4.061394855753811</v>
-      </c>
-      <c r="V32" t="n">
-        <v>10</v>
-      </c>
-      <c r="W32" t="n">
-        <v>6092.092283630716</v>
-      </c>
-      <c r="X32" t="n">
-        <v>6000</v>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
@@ -4859,79 +3799,31 @@
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="n">
-        <v>7.512500962911661</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>3858.325112966121</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>4288.394046307297</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>2534.903017915675</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1753.491028391622</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1323.422095050446</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>190.9600393810886</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>300.7697231125568</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>546.8433853093653</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>284.8489472474355</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0.6569957024608915</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0.5911077644785139</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>70.13964113566476</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>365.8790218316202</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>-295.7393806959554</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0.4660689810099123</v>
-      </c>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="n">
-        <v>-9172.396496248293</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>-0.7284251329838244</v>
-      </c>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -5093,18 +3985,10 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -5113,76 +3997,30 @@
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="n">
-        <v>9.119947969205111</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>6389.79031407168</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>6389.79031407168</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>459.4527633968114</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1249.711811061699</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>3588.915409769644</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>1091.710329843525</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>1801.742378532617</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>-1801.742378532617</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>0.2819720663704164</v>
-      </c>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="n">
-        <v>0</v>
-      </c>
+      <c r="BD34" t="inlineStr"/>
       <c r="BE34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -5345,18 +4183,10 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="n">
-        <v>6.726095067443874</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>10089.14260116581</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
@@ -5365,79 +4195,31 @@
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="n">
-        <v>9.119947969205111</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>6389.79031407168</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>7102.02949148356</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1890.860523488872</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>5211.168967994689</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>4498.929790582807</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>429.3074127024353</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>739.3062816566119</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>2244.780534288679</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>1085.535561935082</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0.2959190255938124</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0.2662422798661014</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>208.4467587197857</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>1278.824232246578</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>-1070.377473526792</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0.3178967411378322</v>
-      </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="n">
-        <v>-2860.714576905596</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>-0.2835438738446454</v>
-      </c>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -5599,18 +4381,10 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="n">
-        <v>6.726095067443874</v>
-      </c>
-      <c r="V38" t="n">
-        <v>10</v>
-      </c>
-      <c r="W38" t="n">
-        <v>10089.14260116581</v>
-      </c>
-      <c r="X38" t="n">
-        <v>6000</v>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -5619,79 +4393,31 @@
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="n">
-        <v>9.119947969205111</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>6389.79031407168</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>7102.02949148356</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>4027.004463557556</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>3075.025027926004</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>2362.785850514124</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>284.34588956249</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>482.30185242466</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>1074.162575878569</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>521.9755326484046</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>0.6302248220398147</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>0.5670216475989802</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>123.0010011170401</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>660.7850560743974</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>-537.7840549573573</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>0.378882501998211</v>
-      </c>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr"/>
-      <c r="BD38" t="n">
-        <v>-7902.368129990209</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>-0.4763578395808633</v>
-      </c>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">

--- a/test4f.xlsx
+++ b/test4f.xlsx
@@ -1851,13 +1851,13 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>9.232996483297564</v>
+        <v>10</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13849.49472494635</v>
+        <v>15000</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1871,77 +1871,77 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>8.159029476741042</v>
+        <v>7.727832487873169</v>
       </c>
       <c r="AH13" t="n">
-        <v>13554.68766721154</v>
+        <v>11559.42574525542</v>
       </c>
       <c r="AI13" t="n">
-        <v>9755.919730798634</v>
+        <v>10566.36352937754</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2973.569625384749</v>
+        <v>3521.330594287391</v>
       </c>
       <c r="AK13" t="n">
-        <v>6782.350105413922</v>
+        <v>7045.032935090147</v>
       </c>
       <c r="AL13" t="n">
-        <v>10581.11804182718</v>
+        <v>8038.095150968032</v>
       </c>
       <c r="AM13" t="n">
-        <v>2650.390947447119</v>
+        <v>607.1753285511822</v>
       </c>
       <c r="AN13" t="n">
-        <v>2028.134578222797</v>
+        <v>1482.44036143576</v>
       </c>
       <c r="AO13" t="n">
-        <v>4053.348816503142</v>
+        <v>4116.063933945034</v>
       </c>
       <c r="AP13" t="n">
-        <v>1849.243699653907</v>
+        <v>1832.415527036056</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14.92666685128674</v>
+        <v>-0.6345958244451267</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.0734468400506</v>
+        <v>-8.42685369907935</v>
       </c>
       <c r="AS13" t="n">
-        <v>-6.589719684481667</v>
+        <v>-21.29685747924691</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.941233320360956</v>
+        <v>-0.1045435911062923</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.2193757391088945</v>
+        <v>0.3046285059387767</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.3047964423074777</v>
+        <v>0.3332585126848113</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>271.2940042165569</v>
+        <v>281.8013174036062</v>
       </c>
       <c r="AY13" t="n">
-        <v>2829.440759434487</v>
+        <v>2286.96504063424</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-2558.14675521793</v>
+        <v>-2005.163723230634</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.2860418889241081</v>
+        <v>0.2970564980271703</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
-        <v>-17392.90727233772</v>
+        <v>-2185.954915917501</v>
       </c>
       <c r="BE13" t="n">
-        <v>-1.25585139514215</v>
+        <v>-0.1457303277278334</v>
       </c>
     </row>
     <row r="14">

--- a/test4f.xlsx
+++ b/test4f.xlsx
@@ -1871,77 +1871,77 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>7.727832487873169</v>
+        <v>9.14482161880739</v>
       </c>
       <c r="AH13" t="n">
-        <v>11559.42574525542</v>
+        <v>15825.33339008426</v>
       </c>
       <c r="AI13" t="n">
-        <v>10566.36352937754</v>
+        <v>10476</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3521.330594287391</v>
+        <v>3471.728204622751</v>
       </c>
       <c r="AK13" t="n">
-        <v>7045.032935090147</v>
+        <v>7004.271795377251</v>
       </c>
       <c r="AL13" t="n">
-        <v>8038.095150968032</v>
+        <v>12353.60518546151</v>
       </c>
       <c r="AM13" t="n">
-        <v>607.1753285511822</v>
+        <v>2994.013868898331</v>
       </c>
       <c r="AN13" t="n">
-        <v>1482.44036143576</v>
+        <v>2445.786307273602</v>
       </c>
       <c r="AO13" t="n">
-        <v>4116.063933945034</v>
+        <v>4814.27754107044</v>
       </c>
       <c r="AP13" t="n">
-        <v>1832.415527036056</v>
+        <v>2099.527468219139</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.6345958244451267</v>
+        <v>-0.6740005041031701</v>
       </c>
       <c r="AR13" t="n">
-        <v>-8.42685369907935</v>
+        <v>-6.437845823738465</v>
       </c>
       <c r="AS13" t="n">
-        <v>-21.29685747924691</v>
+        <v>-14.73959102415433</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.1045435911062923</v>
+        <v>-0.08635137603200758</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.3046285059387767</v>
+        <v>0.2193778872802796</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.3332585126848113</v>
+        <v>0.331398263136956</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>281.8013174036062</v>
+        <v>280.1708718150903</v>
       </c>
       <c r="AY13" t="n">
-        <v>2286.96504063424</v>
+        <v>3306.052148343698</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-2005.163723230634</v>
+        <v>-3025.881276528608</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.2970564980271703</v>
+        <v>0.2814803312251295</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
-        <v>-2185.954915917501</v>
+        <v>-2441.954144085222</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.1457303277278334</v>
+        <v>-0.1627969429390148</v>
       </c>
     </row>
     <row r="14">
